--- a/docs/assets/tables/GDMBR.xlsx
+++ b/docs/assets/tables/GDMBR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gravel/Private/f3/docs/assets/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DA4CBC-852B-0B4A-B7A0-9C8C1BFCEB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F2EB4-1496-D248-819F-41CC6F1D9DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1160" windowWidth="35460" windowHeight="21640" xr2:uid="{3D076BE0-CA79-3448-855F-AD0FA0DCE9D7}"/>
+    <workbookView xWindow="660" yWindow="680" windowWidth="34700" windowHeight="21520" xr2:uid="{3D076BE0-CA79-3448-855F-AD0FA0DCE9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="295">
   <si>
     <t>When</t>
   </si>
@@ -1293,6 +1293,126 @@
   </si>
   <si>
     <t>day43</t>
+  </si>
+  <si>
+    <t>Sunset Post</t>
+  </si>
+  <si>
+    <t>Camaraderie</t>
+  </si>
+  <si>
+    <t>Pie Town and Toaster House</t>
+  </si>
+  <si>
+    <t>Deserticus</t>
+  </si>
+  <si>
+    <t>Abiquiu to Cuba</t>
+  </si>
+  <si>
+    <t>Abiquiu Lodge</t>
+  </si>
+  <si>
+    <t>Land of enchantement - really?</t>
+  </si>
+  <si>
+    <t>Altus Maximus</t>
+  </si>
+  <si>
+    <t>Del Norte - le Colorado sauvage</t>
+  </si>
+  <si>
+    <t>Cow-Girl</t>
+  </si>
+  <si>
+    <t>Salida et un peu de repos</t>
+  </si>
+  <si>
+    <t>Boreas Pass 3'500m</t>
+  </si>
+  <si>
+    <t>le Colorado a du relief!</t>
+  </si>
+  <si>
+    <t>Leaving Brush Mountain Lodge</t>
+  </si>
+  <si>
+    <t>Hello Colorado!</t>
+  </si>
+  <si>
+    <t>Ça déraille à Rawlins</t>
+  </si>
+  <si>
+    <t>The Great Basin #2</t>
+  </si>
+  <si>
+    <t>The Great Basin</t>
+  </si>
+  <si>
+    <t>Pinendale</t>
+  </si>
+  <si>
+    <t>Togwotee et Union Pass</t>
+  </si>
+  <si>
+    <t>Welcome in Wyoming</t>
+  </si>
+  <si>
+    <t>Old Oregon Short Line</t>
+  </si>
+  <si>
+    <t>Today is a good day</t>
+  </si>
+  <si>
+    <t>Orages</t>
+  </si>
+  <si>
+    <t>Fleecer Ridge</t>
+  </si>
+  <si>
+    <t>2 semaines</t>
+  </si>
+  <si>
+    <t>Lava Mountain and Butte</t>
+  </si>
+  <si>
+    <t>Helena et Park Lake</t>
+  </si>
+  <si>
+    <t>1'000km</t>
+  </si>
+  <si>
+    <t>Alpaca Farm</t>
+  </si>
+  <si>
+    <t>2075mD+</t>
+  </si>
+  <si>
+    <t>Camping chez Swan!</t>
+  </si>
+  <si>
+    <t>une semaine déjà!</t>
+  </si>
+  <si>
+    <t>49ème parallèle</t>
+  </si>
+  <si>
+    <t>the Titan</t>
+  </si>
+  <si>
+    <t>the King</t>
+  </si>
+  <si>
+    <t>Le jour du Grand Départ</t>
+  </si>
+  <si>
+    <t>Arrivée à Banff</t>
+  </si>
+  <si>
+    <t>On fait pas le malin le 1er jour</t>
+  </si>
+  <si>
+    <t>Antelope Wells : clap de fin. Vraiment ?</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1412,7 +1532,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1751,7 +1876,7 @@
   <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,7 +1886,7 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="47.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" customWidth="1"/>
@@ -1779,7 +1904,7 @@
     <col min="30" max="30" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1910,7 +2035,9 @@
       <c r="F2" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>149</v>
       </c>
@@ -1990,7 +2117,7 @@
       <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="18">
         <f t="shared" ref="AI2:AI42" si="2">AI3+K2</f>
         <v>4581.2200000000012</v>
       </c>
@@ -2016,7 +2143,9 @@
       <c r="F3" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>148</v>
       </c>
@@ -2096,7 +2225,7 @@
       <c r="AH3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="18">
         <f t="shared" si="2"/>
         <v>4508.8900000000012</v>
       </c>
@@ -2122,7 +2251,9 @@
       <c r="F4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>150</v>
       </c>
@@ -2202,7 +2333,7 @@
       <c r="AH4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="18">
         <f t="shared" si="2"/>
         <v>4320.4400000000014</v>
       </c>
@@ -2228,7 +2359,9 @@
       <c r="F5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" t="s">
+        <v>256</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>152</v>
       </c>
@@ -2308,7 +2441,7 @@
       <c r="AH5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="18">
         <f t="shared" si="2"/>
         <v>4230.0700000000015</v>
       </c>
@@ -2334,7 +2467,9 @@
       <c r="F6" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>151</v>
       </c>
@@ -2414,7 +2549,7 @@
       <c r="AH6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="18">
         <f t="shared" si="2"/>
         <v>4073.4500000000012</v>
       </c>
@@ -2440,7 +2575,9 @@
       <c r="F7" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>154</v>
       </c>
@@ -2520,7 +2657,7 @@
       <c r="AH7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="18">
         <f t="shared" si="2"/>
         <v>3958.0600000000013</v>
       </c>
@@ -2546,7 +2683,9 @@
       <c r="F8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>155</v>
       </c>
@@ -2626,7 +2765,7 @@
       <c r="AH8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="18">
         <f t="shared" si="2"/>
         <v>3860.1100000000015</v>
       </c>
@@ -2652,7 +2791,9 @@
       <c r="F9" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>153</v>
       </c>
@@ -2732,7 +2873,7 @@
       <c r="AH9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="18">
         <f t="shared" si="2"/>
         <v>3735.2500000000014</v>
       </c>
@@ -2758,7 +2899,9 @@
       <c r="F10" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>156</v>
       </c>
@@ -2838,7 +2981,7 @@
       <c r="AH10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="18">
         <f t="shared" si="2"/>
         <v>3610.3400000000015</v>
       </c>
@@ -2864,7 +3007,9 @@
       <c r="F11" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" t="s">
+        <v>260</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="1" t="s">
@@ -2942,7 +3087,7 @@
       <c r="AH11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="18">
         <f t="shared" si="2"/>
         <v>3522.3400000000015</v>
       </c>
@@ -2968,7 +3113,9 @@
       <c r="F12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -3045,7 +3192,7 @@
       <c r="AH12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="18">
         <f t="shared" si="2"/>
         <v>3445.2500000000014</v>
       </c>
@@ -3071,7 +3218,9 @@
       <c r="F13" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" t="s">
+        <v>262</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>157</v>
       </c>
@@ -3151,7 +3300,7 @@
       <c r="AH13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AI13" s="18">
         <f t="shared" si="2"/>
         <v>3328.2900000000013</v>
       </c>
@@ -3177,7 +3326,9 @@
       <c r="F14" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" t="s">
+        <v>263</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>160</v>
       </c>
@@ -3257,7 +3408,7 @@
       <c r="AH14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AI14" s="18">
         <f t="shared" si="2"/>
         <v>3205.2600000000011</v>
       </c>
@@ -3283,7 +3434,9 @@
       <c r="F15" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" t="s">
+        <v>264</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1" t="s">
@@ -3361,7 +3514,7 @@
       <c r="AH15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="18">
         <f t="shared" si="2"/>
         <v>3092.3400000000011</v>
       </c>
@@ -3387,7 +3540,9 @@
       <c r="F16" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" t="s">
+        <v>265</v>
+      </c>
       <c r="H16" s="5" t="s">
         <v>158</v>
       </c>
@@ -3467,7 +3622,7 @@
       <c r="AH16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AI16" s="8">
+      <c r="AI16" s="18">
         <f t="shared" si="2"/>
         <v>3059.670000000001</v>
       </c>
@@ -3493,7 +3648,9 @@
       <c r="F17" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" t="s">
+        <v>266</v>
+      </c>
       <c r="H17" s="5" t="s">
         <v>159</v>
       </c>
@@ -3573,7 +3730,7 @@
       <c r="AH17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AI17" s="18">
         <f t="shared" si="2"/>
         <v>2980.190000000001</v>
       </c>
@@ -3599,7 +3756,9 @@
       <c r="F18" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" t="s">
+        <v>267</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="1" t="s">
@@ -3677,7 +3836,7 @@
       <c r="AH18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AI18" s="18">
         <f t="shared" si="2"/>
         <v>2826.7600000000011</v>
       </c>
@@ -3703,7 +3862,9 @@
       <c r="F19" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" t="s">
+        <v>268</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="1" t="s">
@@ -3781,7 +3942,7 @@
       <c r="AH19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AI19" s="18">
         <f t="shared" si="2"/>
         <v>2720.1600000000012</v>
       </c>
@@ -3807,7 +3968,9 @@
       <c r="F20" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" t="s">
+        <v>269</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="1" t="s">
@@ -3885,7 +4048,7 @@
       <c r="AH20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AI20" s="18">
         <f t="shared" si="2"/>
         <v>2584.7900000000013</v>
       </c>
@@ -3911,7 +4074,9 @@
       <c r="F21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" t="s">
+        <v>270</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="1" t="s">
@@ -3989,7 +4154,7 @@
       <c r="AH21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AI21" s="18">
         <f t="shared" si="2"/>
         <v>2496.4900000000011</v>
       </c>
@@ -4015,7 +4180,9 @@
       <c r="F22" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" t="s">
+        <v>271</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="1" t="s">
@@ -4093,7 +4260,7 @@
       <c r="AH22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AI22" s="18">
         <f t="shared" si="2"/>
         <v>2448.170000000001</v>
       </c>
@@ -4119,7 +4286,9 @@
       <c r="F23" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" t="s">
+        <v>272</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="1" t="s">
@@ -4197,7 +4366,7 @@
       <c r="AH23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AI23" s="8">
+      <c r="AI23" s="18">
         <f t="shared" si="2"/>
         <v>2271.9300000000007</v>
       </c>
@@ -4223,7 +4392,9 @@
       <c r="F24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" t="s">
+        <v>273</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="1" t="s">
@@ -4301,7 +4472,7 @@
       <c r="AH24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AI24" s="8">
+      <c r="AI24" s="18">
         <f t="shared" si="2"/>
         <v>2090.1800000000007</v>
       </c>
@@ -4327,7 +4498,9 @@
       <c r="F25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" t="s">
+        <v>274</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
@@ -4405,7 +4578,7 @@
       <c r="AH25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AI25" s="8">
+      <c r="AI25" s="18">
         <f t="shared" si="2"/>
         <v>1983.8400000000006</v>
       </c>
@@ -4431,7 +4604,9 @@
       <c r="F26" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" t="s">
+        <v>275</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="1" t="s">
@@ -4509,7 +4684,7 @@
       <c r="AH26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AI26" s="8">
+      <c r="AI26" s="18">
         <f t="shared" si="2"/>
         <v>1886.3400000000006</v>
       </c>
@@ -4535,7 +4710,9 @@
       <c r="F27" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" t="s">
+        <v>276</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="1" t="s">
@@ -4613,7 +4790,7 @@
       <c r="AH27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AI27" s="8">
+      <c r="AI27" s="18">
         <f t="shared" si="2"/>
         <v>1750.1900000000005</v>
       </c>
@@ -4639,7 +4816,9 @@
       <c r="F28" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="1" t="s">
@@ -4717,7 +4896,7 @@
       <c r="AH28" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AI28" s="8">
+      <c r="AI28" s="18">
         <f t="shared" si="2"/>
         <v>1607.3300000000004</v>
       </c>
@@ -4743,7 +4922,9 @@
       <c r="F29" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="1" t="s">
@@ -4821,7 +5002,7 @@
       <c r="AH29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AI29" s="8">
+      <c r="AI29" s="18">
         <f t="shared" si="2"/>
         <v>1476.1700000000003</v>
       </c>
@@ -4847,7 +5028,9 @@
       <c r="F30" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" t="s">
+        <v>279</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="1" t="s">
@@ -4925,7 +5108,7 @@
       <c r="AH30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI30" s="8">
+      <c r="AI30" s="18">
         <f t="shared" si="2"/>
         <v>1383.7000000000003</v>
       </c>
@@ -4951,7 +5134,9 @@
       <c r="F31" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" t="s">
+        <v>280</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="1" t="s">
@@ -5029,7 +5214,7 @@
       <c r="AH31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI31" s="8">
+      <c r="AI31" s="18">
         <f t="shared" si="2"/>
         <v>1306.1900000000003</v>
       </c>
@@ -5055,7 +5240,9 @@
       <c r="F32" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" t="s">
+        <v>281</v>
+      </c>
       <c r="H32" s="5" t="s">
         <v>140</v>
       </c>
@@ -5135,7 +5322,7 @@
       <c r="AH32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI32" s="18">
         <f t="shared" si="2"/>
         <v>1241.5300000000002</v>
       </c>
@@ -5160,7 +5347,9 @@
       <c r="F33" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" t="s">
+        <v>282</v>
+      </c>
       <c r="H33" s="5" t="s">
         <v>210</v>
       </c>
@@ -5240,7 +5429,7 @@
       <c r="AH33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AI33" s="18">
         <f t="shared" si="2"/>
         <v>1148.5700000000002</v>
       </c>
@@ -5261,7 +5450,9 @@
       <c r="F34" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" t="s">
+        <v>283</v>
+      </c>
       <c r="H34" s="5" t="s">
         <v>139</v>
       </c>
@@ -5295,7 +5486,7 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="8">
+      <c r="AI34" s="18">
         <f t="shared" si="2"/>
         <v>1046.5900000000001</v>
       </c>
@@ -5321,7 +5512,9 @@
       <c r="F35" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" t="s">
+        <v>284</v>
+      </c>
       <c r="H35" s="5" t="s">
         <v>139</v>
       </c>
@@ -5401,7 +5594,7 @@
       <c r="AH35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AI35" s="8">
+      <c r="AI35" s="18">
         <f t="shared" si="2"/>
         <v>1046.5900000000001</v>
       </c>
@@ -5427,7 +5620,9 @@
       <c r="F36" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="1" t="s">
@@ -5505,7 +5700,7 @@
       <c r="AH36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AI36" s="8">
+      <c r="AI36" s="18">
         <f t="shared" si="2"/>
         <v>933.72</v>
       </c>
@@ -5531,7 +5726,9 @@
       <c r="F37" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" t="s">
+        <v>286</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="1" t="s">
@@ -5609,7 +5806,7 @@
       <c r="AH37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AI37" s="8">
+      <c r="AI37" s="18">
         <f t="shared" si="2"/>
         <v>810.46</v>
       </c>
@@ -5635,7 +5832,9 @@
       <c r="F38" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" t="s">
+        <v>287</v>
+      </c>
       <c r="H38" s="5" t="s">
         <v>132</v>
       </c>
@@ -5717,7 +5916,7 @@
       <c r="AH38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AI38" s="8">
+      <c r="AI38" s="18">
         <f t="shared" si="2"/>
         <v>687.95</v>
       </c>
@@ -5743,7 +5942,9 @@
       <c r="F39" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" t="s">
+        <v>288</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>131</v>
       </c>
@@ -5825,7 +6026,7 @@
       <c r="AH39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI39" s="8">
+      <c r="AI39" s="18">
         <f t="shared" si="2"/>
         <v>558.25</v>
       </c>
@@ -5851,7 +6052,9 @@
       <c r="F40" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" t="s">
+        <v>289</v>
+      </c>
       <c r="H40" s="5" t="s">
         <v>130</v>
       </c>
@@ -5933,7 +6136,7 @@
       <c r="AH40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AI40" s="8">
+      <c r="AI40" s="18">
         <f t="shared" si="2"/>
         <v>427.77000000000004</v>
       </c>
@@ -5959,7 +6162,9 @@
       <c r="F41" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" t="s">
+        <v>290</v>
+      </c>
       <c r="H41" s="5" t="s">
         <v>129</v>
       </c>
@@ -6041,7 +6246,7 @@
       <c r="AH41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AI41" s="8">
+      <c r="AI41" s="18">
         <f t="shared" si="2"/>
         <v>343.1</v>
       </c>
@@ -6067,7 +6272,9 @@
       <c r="F42" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" t="s">
+        <v>291</v>
+      </c>
       <c r="H42" s="5" t="s">
         <v>128</v>
       </c>
@@ -6149,7 +6356,7 @@
       <c r="AH42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AI42" s="8">
+      <c r="AI42" s="18">
         <f t="shared" si="2"/>
         <v>218.31</v>
       </c>
@@ -6175,7 +6382,9 @@
       <c r="F43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" t="s">
+        <v>292</v>
+      </c>
       <c r="H43" s="5" t="s">
         <v>145</v>
       </c>
@@ -6257,7 +6466,7 @@
       <c r="AH43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI43" s="8">
+      <c r="AI43" s="18">
         <f>AI44+K43</f>
         <v>170.05</v>
       </c>
@@ -6282,7 +6491,9 @@
       <c r="F44" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" t="s">
+        <v>293</v>
+      </c>
       <c r="H44" s="5" t="s">
         <v>127</v>
       </c>
@@ -6364,7 +6575,7 @@
       <c r="AH44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI44" s="8">
+      <c r="AI44" s="18">
         <f>K44</f>
         <v>112.24</v>
       </c>
@@ -6375,7 +6586,6 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="7" t="s">
@@ -6412,7 +6622,6 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="7" t="s">

--- a/docs/assets/tables/GDMBR.xlsx
+++ b/docs/assets/tables/GDMBR.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gravel/Private/f3/docs/assets/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F2EB4-1496-D248-819F-41CC6F1D9DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20831FA8-07F9-C14F-8BA3-5A6618626728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="680" windowWidth="34700" windowHeight="21520" xr2:uid="{3D076BE0-CA79-3448-855F-AD0FA0DCE9D7}"/>
+    <workbookView xWindow="660" yWindow="680" windowWidth="25560" windowHeight="20400" xr2:uid="{3D076BE0-CA79-3448-855F-AD0FA0DCE9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="296">
   <si>
     <t>When</t>
   </si>
@@ -1413,6 +1412,9 @@
   </si>
   <si>
     <t>Antelope Wells : clap de fin. Vraiment ?</t>
+  </si>
+  <si>
+    <t>From BANFF = 40 days</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97B946-75B5-864A-A3A5-6F8B2DC55CE3}">
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4061,7 +4063,7 @@
         <v>45522.654398148145</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6293,7 +6295,7 @@
       <c r="M42" s="2">
         <v>0.18214120370370371</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="6">
         <v>0.14332175925925925</v>
       </c>
       <c r="O42" s="2">
@@ -6639,6 +6641,9 @@
         <v>133</v>
       </c>
       <c r="I47" s="5"/>
+      <c r="J47" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H48" s="5" t="s">
